--- a/inst/extdata/Roc.xlsx
+++ b/inst/extdata/Roc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7799BF-81A2-A84E-AE6A-52B4465EFBE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4F0FD5-9F81-5E45-A146-312A41D4A510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="340" windowWidth="25360" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18280" yWindow="5340" windowWidth="25360" windowHeight="15380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRUTH" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="17">
   <si>
     <t>CaseID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>FCTRL</t>
+  </si>
+  <si>
+    <t>TP_Rating</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2488,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D691"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G344" sqref="G344"/>
     </sheetView>
   </sheetViews>
@@ -12185,8 +12188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E451"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L414" sqref="L414"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12208,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
